--- a/data/ClearingEfficiency_v1.xlsx
+++ b/data/ClearingEfficiency_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Journal Publications/Manuscripts/Dissertation/CH2_Pomacea-Time-Series/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4A7C03E4-2DE5-493D-AB26-E395D3C5EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FFBFA83-B5F7-4378-BB72-CED44F6DEB3F}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{4A7C03E4-2DE5-493D-AB26-E395D3C5EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CBF1F7-D105-4D65-BEF4-39F65F746A97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB82C6CD-E98C-47E6-ACFD-ED4329931F98}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -134,7 +134,55 @@
     <t>none</t>
   </si>
   <si>
-    <t>Semi</t>
+    <t>WCA</t>
+  </si>
+  <si>
+    <t>02_A</t>
+  </si>
+  <si>
+    <t>02_C</t>
+  </si>
+  <si>
+    <t>02_B</t>
+  </si>
+  <si>
+    <t>NB_AH</t>
+  </si>
+  <si>
+    <t>JS_AH</t>
+  </si>
+  <si>
+    <t>Entered.by</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Checked.by</t>
   </si>
 </sst>
 </file>
@@ -194,6 +242,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,15 +545,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192451DE-12CA-44E4-867F-93EA6DA62EBC}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,22 +577,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44993</v>
       </c>
@@ -558,17 +623,23 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2">
         <v>16.649999999999999</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44993</v>
       </c>
@@ -590,17 +661,23 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
         <v>24.74</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44993</v>
       </c>
@@ -622,17 +699,23 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
         <v>16.03</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44993</v>
       </c>
@@ -654,17 +737,23 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5">
         <v>29.85</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44993</v>
       </c>
@@ -686,17 +775,23 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6">
         <v>3.83</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44993</v>
       </c>
@@ -718,17 +813,23 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7">
         <v>17.63</v>
       </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44993</v>
       </c>
@@ -750,17 +851,23 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8">
         <v>29.95</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44993</v>
       </c>
@@ -782,17 +889,23 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
         <v>18.38</v>
       </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
       <c r="J9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44993</v>
       </c>
@@ -814,17 +927,23 @@
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10">
         <v>23.2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45019</v>
       </c>
@@ -846,17 +965,23 @@
       <c r="G11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11">
         <v>43.83</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45019</v>
       </c>
@@ -878,17 +1003,23 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
         <v>28.32</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45019</v>
       </c>
@@ -910,17 +1041,23 @@
       <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
         <v>32.909999999999997</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
       <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45019</v>
       </c>
@@ -942,17 +1079,23 @@
       <c r="G14">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
         <v>24.61</v>
       </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
       <c r="J14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45019</v>
       </c>
@@ -974,17 +1117,23 @@
       <c r="G15">
         <v>7</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15">
         <v>31.96</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45019</v>
       </c>
@@ -1006,17 +1155,23 @@
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16">
         <v>9.5399999999999991</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45019</v>
       </c>
@@ -1038,17 +1193,23 @@
       <c r="G17">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17">
         <v>19.809999999999999</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
       <c r="J17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45019</v>
       </c>
@@ -1070,17 +1231,23 @@
       <c r="G18">
         <v>9</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
         <v>37.85</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45019</v>
       </c>
@@ -1102,17 +1269,23 @@
       <c r="G19">
         <v>9</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19">
         <v>22.16</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45019</v>
       </c>
@@ -1134,17 +1307,23 @@
       <c r="G20">
         <v>9</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20">
         <v>7.57</v>
       </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
       <c r="J20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45019</v>
       </c>
@@ -1166,17 +1345,23 @@
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
         <v>25.53</v>
       </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
       <c r="J21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45019</v>
       </c>
@@ -1198,17 +1383,23 @@
       <c r="G22">
         <v>10</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22">
         <v>17.87</v>
       </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
       <c r="J22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45019</v>
       </c>
@@ -1230,17 +1421,23 @@
       <c r="G23">
         <v>10</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23">
         <v>8.11</v>
       </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
       <c r="J23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45019</v>
       </c>
@@ -1262,17 +1459,23 @@
       <c r="G24">
         <v>11</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24">
         <v>9.68</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45019</v>
       </c>
@@ -1294,17 +1497,23 @@
       <c r="G25">
         <v>11</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25">
         <v>17.91</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>14</v>
       </c>
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45019</v>
       </c>
@@ -1326,14 +1535,17 @@
       <c r="G26">
         <v>12</v>
       </c>
-      <c r="J26" t="s">
-        <v>32</v>
-      </c>
       <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45019</v>
       </c>
@@ -1355,17 +1567,23 @@
       <c r="G27">
         <v>13</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27">
         <v>35.61</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>14</v>
       </c>
-      <c r="J27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45019</v>
       </c>
@@ -1387,17 +1605,23 @@
       <c r="G28">
         <v>14</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28">
         <v>4.96</v>
       </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
       <c r="J28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45019</v>
       </c>
@@ -1419,17 +1643,23 @@
       <c r="G29">
         <v>15</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
         <v>29.31</v>
       </c>
-      <c r="I29" t="s">
-        <v>15</v>
-      </c>
       <c r="J29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45019</v>
       </c>
@@ -1451,17 +1681,23 @@
       <c r="G30">
         <v>15</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30">
         <v>5.89</v>
       </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
       <c r="J30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45019</v>
       </c>
@@ -1483,17 +1719,23 @@
       <c r="G31">
         <v>15</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31">
         <v>18.02</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
       <c r="J31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45019</v>
       </c>
@@ -1515,17 +1757,23 @@
       <c r="G32">
         <v>16</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32">
         <v>18.96</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
       <c r="J32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45019</v>
       </c>
@@ -1547,17 +1795,23 @@
       <c r="G33">
         <v>17</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33">
         <v>18.64</v>
       </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
       <c r="J33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45019</v>
       </c>
@@ -1579,17 +1833,23 @@
       <c r="G34">
         <v>18</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34">
         <v>34.520000000000003</v>
       </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
       <c r="J34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45019</v>
       </c>
@@ -1611,17 +1871,23 @@
       <c r="G35">
         <v>18</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
         <v>26.06</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>14</v>
       </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45019</v>
       </c>
@@ -1643,14 +1909,1496 @@
       <c r="G36">
         <v>18</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36">
         <v>5.18</v>
       </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
       <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37">
+        <v>11.74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="M37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38">
+        <v>10.92</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39">
+        <v>4.5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>35.39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43">
+        <v>18.96</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44">
+        <v>31.46</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>27.12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46">
+        <v>32.15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47">
+        <v>37.39</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+      <c r="M47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>26.95</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50">
+        <v>10.97</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
         <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <v>28.26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>29.01</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="M53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54">
+        <v>20.13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="M54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55">
+        <v>38.72</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56">
+        <v>20.47</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>47</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="M57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58">
+        <v>27.18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59">
+        <v>38.01</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+      <c r="M59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60">
+        <v>29.01</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61">
+        <v>27.97</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62">
+        <v>35</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62">
+        <v>17.32</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>47</v>
+      </c>
+      <c r="M62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63">
+        <v>12.9</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" t="s">
+        <v>47</v>
+      </c>
+      <c r="M63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64">
+        <v>28.01</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65">
+        <v>19.91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" t="s">
+        <v>47</v>
+      </c>
+      <c r="M65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66">
+        <v>26.7</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" t="s">
+        <v>47</v>
+      </c>
+      <c r="M66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67">
+        <v>30.49</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s">
+        <v>47</v>
+      </c>
+      <c r="M67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68">
+        <v>25.5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>47</v>
+      </c>
+      <c r="M68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69">
+        <v>24.13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s">
+        <v>47</v>
+      </c>
+      <c r="M69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70">
+        <v>17.38</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
+        <v>47</v>
+      </c>
+      <c r="M70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71">
+        <v>24.19</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
+        <v>47</v>
+      </c>
+      <c r="M71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72">
+        <v>37.39</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>47</v>
+      </c>
+      <c r="M72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73">
+        <v>43</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73">
+        <v>30.08</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s">
+        <v>47</v>
+      </c>
+      <c r="M73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74">
+        <v>24.05</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" t="s">
+        <v>47</v>
+      </c>
+      <c r="M74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75">
+        <v>43</v>
+      </c>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s">
+        <v>47</v>
+      </c>
+      <c r="M75" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/ClearingEfficiency_v1.xlsx
+++ b/data/ClearingEfficiency_v1.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Journal Publications/Manuscripts/Dissertation/CH2_Pomacea-Time-Series/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{4A7C03E4-2DE5-493D-AB26-E395D3C5EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CBF1F7-D105-4D65-BEF4-39F65F746A97}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="8_{4A7C03E4-2DE5-493D-AB26-E395D3C5EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECC5169-C999-40CB-8E1A-55CFE42CFA28}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB82C6CD-E98C-47E6-ACFD-ED4329931F98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +187,18 @@
   </si>
   <si>
     <t>Checked.by</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Y</t>
   </si>
 </sst>
 </file>
@@ -224,9 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,8 +265,298 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nathan Barrus" refreshedDate="45267.55617708333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="73" xr:uid="{F12148DC-C839-4A50-9EDA-56112D3E8A27}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="J2:J75" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Y" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Y"/>
+        <s v="N"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="73">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3239ECA8-6759-4FF0-8D37-94D6BAAC9A79}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Y" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,12 +855,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089162EC-776D-4D66-A37B-4D662F899E9B}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192451DE-12CA-44E4-867F-93EA6DA62EBC}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J2:J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/ClearingEfficiency_v1.xlsx
+++ b/data/ClearingEfficiency_v1.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Journal Publications/Manuscripts/Dissertation/CH2_Pomacea-Time-Series/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4f5e485ed766aa2/Pictures/Documents/Career/Journal Publications/Manuscripts/Dissertation/CH2_Pomacea-Time-Series/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{4A7C03E4-2DE5-493D-AB26-E395D3C5EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECC5169-C999-40CB-8E1A-55CFE42CFA28}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{4A7C03E4-2DE5-493D-AB26-E395D3C5EFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705F0EE8-53AF-43E1-A1A7-2FBBD34114A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB82C6CD-E98C-47E6-ACFD-ED4329931F98}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{FB82C6CD-E98C-47E6-ACFD-ED4329931F98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -187,18 +183,6 @@
   </si>
   <si>
     <t>Checked.by</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Y</t>
   </si>
 </sst>
 </file>
@@ -240,14 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,304 +244,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nathan Barrus" refreshedDate="45267.55617708333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="73" xr:uid="{F12148DC-C839-4A50-9EDA-56112D3E8A27}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="J2:J75" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="Y" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Y"/>
-        <s v="N"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="73">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3239ECA8-6759-4FF0-8D37-94D6BAAC9A79}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Y" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,7 +285,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -706,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -848,74 +533,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089162EC-776D-4D66-A37B-4D662F899E9B}">
-  <dimension ref="A3:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="4">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192451DE-12CA-44E4-867F-93EA6DA62EBC}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J75" sqref="J2:J75"/>
     </sheetView>
